--- a/IOCR2.0/output/PO_534140.xlsx
+++ b/IOCR2.0/output/PO_534140.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Ehrlich\Desktop\My Drive\UI Path Toolkit\Presales Presentations\Demo Kit\REF_OCR\IOCR2.0\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502F37CA-56DC-4C0A-A285-9FA625AE1A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F10D4A1-F36B-4E4C-8F4A-6AA98A3EBB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="-8940" windowWidth="14400" windowHeight="7380" xr2:uid="{738705EC-A696-42A3-B7A5-795F85453CCB}"/>
+    <workbookView xWindow="0" yWindow="345" windowWidth="15442" windowHeight="9600" xr2:uid="{738705EC-A696-42A3-B7A5-795F85453CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Fields - Formatted" sheetId="3" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
-    <t>TotalAmount</t>
-  </si>
-  <si>
     <t>CompanyName</t>
   </si>
   <si>
@@ -67,13 +64,16 @@
 "Zip Postal Code",""</t>
   </si>
   <si>
-    <t>InvoiceNumber</t>
-  </si>
-  <si>
-    <t>InvoiceDate</t>
-  </si>
-  <si>
     <t>PaymentTerms</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>BillDate</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -437,22 +437,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
@@ -466,13 +466,13 @@
         <v>159.5</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -490,22 +490,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="270.75" x14ac:dyDescent="0.45">
@@ -519,13 +519,13 @@
         <v>159.5</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
